--- a/ChairishRugEntry/2389-2450.xlsx
+++ b/ChairishRugEntry/2389-2450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okkaa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\PycharmProjects\wovenyChairishPillowEntry\ChairishRugEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2282,7 +2282,7 @@
   <dimension ref="A1:Z160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2">
         <v>290</v>

--- a/ChairishRugEntry/2389-2450.xlsx
+++ b/ChairishRugEntry/2389-2450.xlsx
@@ -2281,11 +2281,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D144" workbookViewId="0">
+      <selection activeCell="R159" sqref="R159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
@@ -5400,7 +5405,7 @@
         <v>94</v>
       </c>
       <c r="D48" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2">
         <v>210</v>
